--- a/input2.xlsx
+++ b/input2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aswadi\OneDrive - Axiata Digital\EDS\Final Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aswadi\OneDrive - Axiata Digital\EDS\Automatic-URL-Classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -96,8 +96,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -113,12 +121,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -127,8 +150,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,14 +468,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -497,81 +520,81 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="G2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
         <v>2211</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <v>12055</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>28</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="G3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
         <v>452</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <v>228</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <v>6</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -635,7 +658,7 @@
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="2">
@@ -676,7 +699,7 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="2">
@@ -717,7 +740,7 @@
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="2">

--- a/input2.xlsx
+++ b/input2.xlsx
@@ -26,45 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
-    <t>cel_internet_summary.hour_id</t>
-  </si>
-  <si>
-    <t>cel_internet_summary.msisdn</t>
-  </si>
-  <si>
-    <t>cel_internet_summary.imsi</t>
-  </si>
-  <si>
-    <t>cel_internet_summary.imei</t>
-  </si>
-  <si>
-    <t>cel_internet_summary.host</t>
-  </si>
-  <si>
-    <t>cel_internet_summary.url</t>
-  </si>
-  <si>
-    <t>cel_internet_summary.domain_id</t>
-  </si>
-  <si>
-    <t>cel_internet_summary.subdomain_id</t>
-  </si>
-  <si>
-    <t>cel_internet_summary.connection_dur_ms</t>
-  </si>
-  <si>
-    <t>cel_internet_summary.upload_bytes</t>
-  </si>
-  <si>
-    <t>cel_internet_summary.download_bytes</t>
-  </si>
-  <si>
-    <t>cel_internet_summary.cdr_cnt</t>
-  </si>
-  <si>
-    <t>cel_internet_summary.date_id</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -90,6 +51,45 @@
   </si>
   <si>
     <t>new-m88-smart-watch-wristband-smartband-heart-rate-blood-pressure-monitor-fitness-tracker-bracelet-pedometer-for-ios-android-pk-mi-band-2-fitbit-72945202.html?ff=1&amp;sc=Eeog</t>
+  </si>
+  <si>
+    <t>hour_id</t>
+  </si>
+  <si>
+    <t>msisdn</t>
+  </si>
+  <si>
+    <t>imsi</t>
+  </si>
+  <si>
+    <t>imei</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>domain_id</t>
+  </si>
+  <si>
+    <t>subdomain_id</t>
+  </si>
+  <si>
+    <t>connection_dur_ms</t>
+  </si>
+  <si>
+    <t>upload_bytes</t>
+  </si>
+  <si>
+    <t>download_bytes</t>
+  </si>
+  <si>
+    <t>cdr_cnt</t>
+  </si>
+  <si>
+    <t>date_id</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,43 +480,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2">
         <v>-1</v>
@@ -557,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -565,7 +565,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2">
         <v>-1</v>
@@ -598,7 +598,7 @@
         <v>6</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -606,7 +606,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2">
         <v>-1</v>
@@ -639,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G5" s="2">
         <v>-1</v>
@@ -680,7 +680,7 @@
         <v>6</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -688,7 +688,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2">
         <v>-1</v>
@@ -721,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -729,7 +729,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2">
         <v>-1</v>
@@ -762,7 +762,7 @@
         <v>6</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
